--- a/SystemAndNetworks/Metasploitable_h47uhi.xlsx
+++ b/SystemAndNetworks/Metasploitable_h47uhi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pieter\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\2TIN\Semester_2\Project\GitHub\BasicSecurityPxl07\SystemAndNetworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3965,15 +3965,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105:D161"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="84.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="67.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
     <col min="10" max="10" width="62.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="67" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="65.28515625" bestFit="1" customWidth="1"/>
@@ -4021,7 +4021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10028</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10056</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10092</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10092</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10107</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10107</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10114</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="105.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10150</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10223</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10263</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10267</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10281</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10287</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10342</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10394</v>
       </c>
@@ -4583,11 +4583,10 @@
         <v>94</v>
       </c>
       <c r="M18" t="e">
-        <f>- NULL sessions are enabled on the remote host.</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10397</v>
       </c>
@@ -4654,7 +4653,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10437</v>
       </c>
@@ -4692,7 +4691,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>10719</v>
       </c>
@@ -4724,7 +4723,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10785</v>
       </c>
@@ -4756,7 +4755,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10863</v>
       </c>
@@ -4788,7 +4787,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>10881</v>
       </c>
@@ -4820,7 +4819,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>11002</v>
       </c>
@@ -4852,7 +4851,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>11002</v>
       </c>
@@ -4884,7 +4883,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>11011</v>
       </c>
@@ -4916,7 +4915,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>11011</v>
       </c>
@@ -4948,7 +4947,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>11111</v>
       </c>
@@ -4980,7 +4979,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>11111</v>
       </c>
@@ -5012,7 +5011,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>11111</v>
       </c>
@@ -5044,7 +5043,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>11111</v>
       </c>
@@ -5076,7 +5075,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>11111</v>
       </c>
@@ -5108,7 +5107,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>11111</v>
       </c>
@@ -5140,7 +5139,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>11111</v>
       </c>
@@ -5172,7 +5171,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>11111</v>
       </c>
@@ -5204,7 +5203,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>11111</v>
       </c>
@@ -5236,7 +5235,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>11111</v>
       </c>
@@ -5268,7 +5267,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>11153</v>
       </c>
@@ -5300,7 +5299,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>11154</v>
       </c>
@@ -5332,7 +5331,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>11154</v>
       </c>
@@ -5364,7 +5363,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>11156</v>
       </c>
@@ -5519,7 +5518,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>11219</v>
       </c>
@@ -5551,7 +5550,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>11219</v>
       </c>
@@ -5583,7 +5582,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>11219</v>
       </c>
@@ -5615,7 +5614,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>11219</v>
       </c>
@@ -5647,7 +5646,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>11219</v>
       </c>
@@ -5679,7 +5678,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>11219</v>
       </c>
@@ -5711,7 +5710,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>11219</v>
       </c>
@@ -5743,7 +5742,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>11219</v>
       </c>
@@ -5775,7 +5774,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>11219</v>
       </c>
@@ -5807,7 +5806,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>11219</v>
       </c>
@@ -5839,7 +5838,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>11219</v>
       </c>
@@ -5871,7 +5870,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>11219</v>
       </c>
@@ -5903,7 +5902,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>11219</v>
       </c>
@@ -5935,7 +5934,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>11219</v>
       </c>
@@ -5967,7 +5966,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>11219</v>
       </c>
@@ -5999,7 +5998,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>11219</v>
       </c>
@@ -6031,7 +6030,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>11219</v>
       </c>
@@ -6063,7 +6062,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>11219</v>
       </c>
@@ -6095,7 +6094,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>11219</v>
       </c>
@@ -6127,7 +6126,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>11219</v>
       </c>
@@ -6159,7 +6158,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>11219</v>
       </c>
@@ -6191,7 +6190,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>11219</v>
       </c>
@@ -6223,7 +6222,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>11219</v>
       </c>
@@ -6255,7 +6254,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>11219</v>
       </c>
@@ -6287,7 +6286,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>11219</v>
       </c>
@@ -6433,7 +6432,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>11422</v>
       </c>
@@ -6465,7 +6464,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>11424</v>
       </c>
@@ -6494,7 +6493,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>11819</v>
       </c>
@@ -6523,7 +6522,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>11936</v>
       </c>
@@ -6628,7 +6627,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>18261</v>
       </c>
@@ -6660,7 +6659,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>19288</v>
       </c>
@@ -6692,7 +6691,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>19506</v>
       </c>
@@ -6762,7 +6761,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>20094</v>
       </c>
@@ -6794,7 +6793,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>20108</v>
       </c>
@@ -6826,7 +6825,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>21186</v>
       </c>
@@ -6861,7 +6860,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>21643</v>
       </c>
@@ -6896,7 +6895,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>22227</v>
       </c>
@@ -6931,7 +6930,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>22964</v>
       </c>
@@ -6963,7 +6962,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>22964</v>
       </c>
@@ -6995,7 +6994,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>22964</v>
       </c>
@@ -7027,7 +7026,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>22964</v>
       </c>
@@ -7059,7 +7058,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>22964</v>
       </c>
@@ -7091,7 +7090,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>22964</v>
       </c>
@@ -7123,7 +7122,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>22964</v>
       </c>
@@ -7155,7 +7154,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>22964</v>
       </c>
@@ -7187,7 +7186,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>22964</v>
       </c>
@@ -7219,7 +7218,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>22964</v>
       </c>
@@ -7251,7 +7250,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>24260</v>
       </c>
@@ -7283,7 +7282,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>24260</v>
       </c>
@@ -7315,7 +7314,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>25220</v>
       </c>
@@ -7347,7 +7346,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>25240</v>
       </c>
@@ -7379,7 +7378,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>26024</v>
       </c>
@@ -7636,7 +7635,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>35371</v>
       </c>
@@ -7668,7 +7667,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>35716</v>
       </c>
@@ -7703,7 +7702,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>39446</v>
       </c>
@@ -7738,7 +7737,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>39519</v>
       </c>
@@ -7773,7 +7772,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>39520</v>
       </c>
@@ -7808,7 +7807,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>39521</v>
       </c>
@@ -7881,7 +7880,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>42088</v>
       </c>
@@ -8024,7 +8023,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>45410</v>
       </c>
@@ -8091,7 +8090,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>45590</v>
       </c>
@@ -8167,7 +8166,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>48243</v>
       </c>
@@ -8199,7 +8198,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>50845</v>
       </c>
@@ -8266,7 +8265,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>51891</v>
       </c>
@@ -8579,7 +8578,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>52703</v>
       </c>
@@ -8614,7 +8613,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>53335</v>
       </c>
@@ -8643,7 +8642,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>54615</v>
       </c>
@@ -8675,7 +8674,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>56984</v>
       </c>
@@ -8707,7 +8706,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>57041</v>
       </c>
@@ -8888,7 +8887,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>62563</v>
       </c>
@@ -8923,7 +8922,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>65792</v>
       </c>
@@ -9037,7 +9036,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>66334</v>
       </c>
@@ -9069,7 +9068,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>70544</v>
       </c>
@@ -9104,7 +9103,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>70657</v>
       </c>
@@ -9209,7 +9208,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>72779</v>
       </c>
@@ -9405,7 +9404,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>84574</v>
       </c>
